--- a/forms/app/quality_monitoring_follow_up.xlsx
+++ b/forms/app/quality_monitoring_follow_up.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>type</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>task_id</t>
+  </si>
+  <si>
+    <t>t_follow_up_areas</t>
+  </si>
+  <si>
+    <t>Data from task</t>
   </si>
   <si>
     <t>calculate</t>
@@ -135,16 +141,13 @@
     <t>Supervision Details</t>
   </si>
   <si>
-    <t>text</t>
+    <t>note</t>
   </si>
   <si>
-    <t>follow_up_topic</t>
+    <t>follow_up_topics</t>
   </si>
   <si>
-    <t>What are you following up with ${chw_name}?</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>**Areas to follow up:** ${t_follow_up_areas}</t>
   </si>
   <si>
     <t>select_one yes_no</t>
@@ -156,10 +159,13 @@
     <t>Has ${chw_name} improved since the last visit?</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>follow_up_again</t>
   </si>
   <si>
-    <t>Would you like to make another follow-up visit to the CHW?</t>
+    <t>Would you like to make another follow-up visit to ${chw_name}?</t>
   </si>
   <si>
     <t>date</t>
@@ -204,6 +210,9 @@
     <t>default_language</t>
   </si>
   <si>
+    <t>style</t>
+  </si>
+  <si>
     <t>Quality Monitoring Follow-up</t>
   </si>
   <si>
@@ -214,6 +223,9 @@
   </si>
   <si>
     <t>English (en)</t>
+  </si>
+  <si>
+    <t>pages</t>
   </si>
 </sst>
 </file>
@@ -696,21 +708,19 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -732,20 +742,20 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -768,17 +778,21 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -800,20 +814,16 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -836,19 +846,19 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -872,13 +882,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -908,14 +918,20 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -938,7 +954,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -968,19 +984,15 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1002,10 +1014,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1036,10 +1048,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1047,7 +1059,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1070,10 +1082,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1103,14 +1115,20 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1131,22 +1149,14 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1167,19 +1177,12 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1203,20 +1206,20 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="3" t="s">
-        <v>43</v>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
+        <v>14</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1239,19 +1242,16 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="4"/>
+      <c r="E22" s="3"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1274,22 +1274,12 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1313,16 +1303,20 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1344,11 +1338,19 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1372,12 +1374,22 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -1400,8 +1412,12 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1736,8 +1752,8 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -28699,6 +28715,34 @@
       <c r="Y1001" s="4"/>
       <c r="Z1001" s="4"/>
     </row>
+    <row r="1002">
+      <c r="A1002" s="4"/>
+      <c r="B1002" s="4"/>
+      <c r="C1002" s="4"/>
+      <c r="D1002" s="4"/>
+      <c r="E1002" s="4"/>
+      <c r="F1002" s="4"/>
+      <c r="G1002" s="4"/>
+      <c r="H1002" s="4"/>
+      <c r="I1002" s="4"/>
+      <c r="J1002" s="4"/>
+      <c r="K1002" s="4"/>
+      <c r="L1002" s="4"/>
+      <c r="M1002" s="4"/>
+      <c r="N1002" s="4"/>
+      <c r="O1002" s="4"/>
+      <c r="P1002" s="4"/>
+      <c r="Q1002" s="4"/>
+      <c r="R1002" s="4"/>
+      <c r="S1002" s="4"/>
+      <c r="T1002" s="4"/>
+      <c r="U1002" s="4"/>
+      <c r="V1002" s="4"/>
+      <c r="W1002" s="4"/>
+      <c r="X1002" s="4"/>
+      <c r="Y1002" s="4"/>
+      <c r="Z1002" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -28719,7 +28763,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -28755,24 +28799,24 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -28798,21 +28842,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -28836,22 +28882,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="8">
         <f>NOW()</f>
-        <v>44705.33057</v>
+        <v>44741.71645</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>

--- a/forms/app/quality_monitoring_follow_up.xlsx
+++ b/forms/app/quality_monitoring_follow_up.xlsx
@@ -1208,7 +1208,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -29081,7 +29081,7 @@
       </c>
       <c r="C2" s="13">
         <f>NOW()</f>
-        <v>44746.43888</v>
+        <v>44748.70825</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>95</v>
